--- a/biology/Botanique/Sveaskog/Sveaskog.xlsx
+++ b/biology/Botanique/Sveaskog/Sveaskog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sveaskog AB est une entreprise publique suédoise qui gère la majeure partie des forêts publiques du pays. L'entreprise possède 4,1 millions d'hectares de forêt, soit 14 % des forêts du pays, ce qui en fait le plus important propriétaire de forêt en Suède. L'entreprise gère l'exploitation de ces forêts et est donc un très grand producteur de bois et de pâte à papier mais aussi de biocarburants utilisés pour la production énergétique. L'entreprise utilise aussi ses forêts pour le tourisme, la chasse et la pêche.
